--- a/Pokemon_Server/data/pkm_super_contest_effects.xlsx
+++ b/Pokemon_Server/data/pkm_super_contest_effects.xlsx
@@ -31,9 +31,6 @@
     <t>Enables the user to perform last in the next turn.</t>
   </si>
   <si>
-    <t>Earn +2 if the Judge's Voltage goes up.</t>
-  </si>
-  <si>
     <t>A basic performance using a move known by the Pokémon.</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Earn +3 if the Pokémon gets the lowest score.</t>
+  </si>
+  <si>
+    <t>Earn +2 if the Judge''s Voltage goes up.</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
